--- a/Enter Excel Data into Website/suppliers.xlsx
+++ b/Enter Excel Data into Website/suppliers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Hall\Documents\UiPath\EnterExcelRangeintoApplication2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Hall\Desktop\UpdatedTemplates\Enter Excel Data Into Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E1CC95-C23B-41C5-9AEF-BB5645D29FD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFC8683-AB16-4ED3-BE8B-380312A9CCCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5232" yWindow="3840" windowWidth="15252" windowHeight="8736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="2280" windowWidth="20550" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Industry</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Foo Inc.</t>
-  </si>
-  <si>
     <t>Acme Inc.</t>
   </si>
   <si>
@@ -49,6 +40,24 @@
   </si>
   <si>
     <t>Engineering</t>
+  </si>
+  <si>
+    <t>Internal Name</t>
+  </si>
+  <si>
+    <t>External Name</t>
+  </si>
+  <si>
+    <t>RPA Provider</t>
+  </si>
+  <si>
+    <t>Engineering Firm</t>
+  </si>
+  <si>
+    <t>Energy Company</t>
+  </si>
+  <si>
+    <t>Power Inc.</t>
   </si>
 </sst>
 </file>
@@ -367,61 +376,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43835</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>43503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>28248</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Enter Excel Data into Website/suppliers.xlsx
+++ b/Enter Excel Data into Website/suppliers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Hall\Desktop\UpdatedTemplates\Enter Excel Data Into Website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Hall\Desktop\Temp-Templates\Enter Excel Data into Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFC8683-AB16-4ED3-BE8B-380312A9CCCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7829AF62-7D69-42CC-BC68-A4BB53B271FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2280" windowWidth="20550" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="2205" windowWidth="20550" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Industry</t>
   </si>
@@ -51,13 +51,16 @@
     <t>RPA Provider</t>
   </si>
   <si>
-    <t>Engineering Firm</t>
-  </si>
-  <si>
     <t>Energy Company</t>
   </si>
   <si>
     <t>Power Inc.</t>
+  </si>
+  <si>
+    <t>Communication Provider</t>
+  </si>
+  <si>
+    <t>Communication</t>
   </si>
 </sst>
 </file>
@@ -379,7 +382,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,10 +405,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -414,13 +417,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1"/>
     </row>
